--- a/resultados/resultados_preliminares.xlsx
+++ b/resultados/resultados_preliminares.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rc130.mtx</t>
+          <t>matrizes/slot01/arc130.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009261846542358398</v>
+        <v>0.003821849822998047</v>
       </c>
       <c r="G2" t="n">
         <v>130</v>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rc130.mtx</t>
+          <t>matrizes/slot01/arc130.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,7 +533,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001899003982543945</v>
+        <v>0.001104831695556641</v>
       </c>
       <c r="G3" t="n">
         <v>130</v>
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cspwr04.mtx</t>
+          <t>matrizes/slot01/bcspwr04.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -570,7 +570,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001699924468994141</v>
+        <v>0.001075029373168945</v>
       </c>
       <c r="G4" t="n">
         <v>274</v>
@@ -592,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cspwr04.mtx</t>
+          <t>matrizes/slot01/bcspwr04.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008566379547119141</v>
+        <v>0.0005688667297363281</v>
       </c>
       <c r="G5" t="n">
         <v>274</v>
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cspwr02.mtx</t>
+          <t>matrizes/slot01/bcspwr02.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001681089401245117</v>
+        <v>0.0008537769317626953</v>
       </c>
       <c r="G6" t="n">
         <v>49</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cspwr02.mtx</t>
+          <t>matrizes/slot01/bcspwr02.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -681,7 +681,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001431941986083984</v>
+        <v>0.0005497932434082031</v>
       </c>
       <c r="G7" t="n">
         <v>49</v>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cspwr03.mtx</t>
+          <t>matrizes/slot01/bcspwr03.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -718,7 +718,7 @@
         <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001582860946655273</v>
+        <v>0.001262903213500977</v>
       </c>
       <c r="G8" t="n">
         <v>118</v>
@@ -740,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cspwr03.mtx</t>
+          <t>matrizes/slot01/bcspwr03.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -755,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004987716674804688</v>
+        <v>0.0003743171691894531</v>
       </c>
       <c r="G9" t="n">
         <v>118</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>138_bus.mtx</t>
+          <t>matrizes/slot01/1138_bus.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -792,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01475024223327637</v>
+        <v>0.0120689868927002</v>
       </c>
       <c r="G10" t="n">
         <v>1138</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>138_bus.mtx</t>
+          <t>matrizes/slot01/1138_bus.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -829,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01040840148925781</v>
+        <v>0.008552312850952148</v>
       </c>
       <c r="G11" t="n">
         <v>1138</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>85_bus.mtx</t>
+          <t>matrizes/slot01/685_bus.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -866,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003242015838623047</v>
+        <v>0.0009889602661132812</v>
       </c>
       <c r="G12" t="n">
         <v>685</v>
@@ -888,7 +888,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>85_bus.mtx</t>
+          <t>matrizes/slot01/685_bus.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -903,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00093841552734375</v>
+        <v>0.0008068084716796875</v>
       </c>
       <c r="G13" t="n">
         <v>685</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sh292.mtx</t>
+          <t>matrizes/slot01/ash292.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -940,7 +940,7 @@
         <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002644777297973633</v>
+        <v>0.003042697906494141</v>
       </c>
       <c r="G14" t="n">
         <v>292</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sh292.mtx</t>
+          <t>matrizes/slot01/ash292.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -977,7 +977,7 @@
         <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0013427734375</v>
+        <v>0.001707077026367188</v>
       </c>
       <c r="G15" t="n">
         <v>292</v>
@@ -999,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>94_bus.mtx</t>
+          <t>matrizes/slot01/494_bus.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1014,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005161762237548828</v>
+        <v>0.0004377365112304688</v>
       </c>
       <c r="G16" t="n">
         <v>494</v>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>94_bus.mtx</t>
+          <t>matrizes/slot01/494_bus.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0004584789276123047</v>
+        <v>0.0003886222839355469</v>
       </c>
       <c r="G17" t="n">
         <v>494</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sh85.mtx</t>
+          <t>matrizes/slot01/ash85.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1088,7 +1088,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009934902191162109</v>
+        <v>0.001199960708618164</v>
       </c>
       <c r="G18" t="n">
         <v>85</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sh85.mtx</t>
+          <t>matrizes/slot01/ash85.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1125,7 +1125,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0007090568542480469</v>
+        <v>0.00054168701171875</v>
       </c>
       <c r="G19" t="n">
         <v>85</v>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>62_bus.mtx</t>
+          <t>matrizes/slot01/662_bus.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001352071762084961</v>
+        <v>0.001955270767211914</v>
       </c>
       <c r="G20" t="n">
         <v>662</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>62_bus.mtx</t>
+          <t>matrizes/slot01/662_bus.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1199,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006771087646484375</v>
+        <v>0.000827789306640625</v>
       </c>
       <c r="G21" t="n">
         <v>662</v>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cspwr05.mtx</t>
+          <t>matrizes/slot02/bcspwr05.mtx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1236,7 +1236,7 @@
         <v>81</v>
       </c>
       <c r="F22" t="n">
-        <v>0.006314516067504883</v>
+        <v>0.007412433624267578</v>
       </c>
       <c r="G22" t="n">
         <v>443</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cspwr05.mtx</t>
+          <t>matrizes/slot02/bcspwr05.mtx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1273,7 +1273,7 @@
         <v>34</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002643346786499023</v>
+        <v>0.00237584114074707</v>
       </c>
       <c r="G23" t="n">
         <v>443</v>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>csstk01.mtx</t>
+          <t>matrizes/slot02/bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1310,7 +1310,7 @@
         <v>134</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004299640655517578</v>
+        <v>0.003579854965209961</v>
       </c>
       <c r="G24" t="n">
         <v>48</v>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>csstk01.mtx</t>
+          <t>matrizes/slot02/bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1347,7 +1347,7 @@
         <v>85</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003015756607055664</v>
+        <v>0.003562450408935547</v>
       </c>
       <c r="G25" t="n">
         <v>48</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cspwr10.mtx</t>
+          <t>matrizes/slot02/bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1384,7 +1384,7 @@
         <v>186</v>
       </c>
       <c r="F26" t="n">
-        <v>3.604434490203857</v>
+        <v>3.517214775085449</v>
       </c>
       <c r="G26" t="n">
         <v>5300</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cspwr10.mtx</t>
+          <t>matrizes/slot02/bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1421,7 +1421,7 @@
         <v>81</v>
       </c>
       <c r="F27" t="n">
-        <v>1.635650396347046</v>
+        <v>1.29491400718689</v>
       </c>
       <c r="G27" t="n">
         <v>5300</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cspwr06.mtx</t>
+          <t>matrizes/slot02/bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1458,7 +1458,7 @@
         <v>124</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1726975440979004</v>
+        <v>0.1400530338287354</v>
       </c>
       <c r="G28" t="n">
         <v>1454</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cspwr06.mtx</t>
+          <t>matrizes/slot02/bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1495,7 +1495,7 @@
         <v>49</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08281469345092773</v>
+        <v>0.05685114860534668</v>
       </c>
       <c r="G29" t="n">
         <v>1454</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cspwr07.mtx</t>
+          <t>matrizes/slot02/bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1532,7 +1532,7 @@
         <v>99</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1983320713043213</v>
+        <v>0.1623399257659912</v>
       </c>
       <c r="G30" t="n">
         <v>1612</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cspwr07.mtx</t>
+          <t>matrizes/slot02/bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1569,7 +1569,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0840601921081543</v>
+        <v>0.07924222946166992</v>
       </c>
       <c r="G31" t="n">
         <v>1612</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>csstk03.mtx</t>
+          <t>matrizes/slot02/bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1606,7 +1606,7 @@
         <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001791000366210938</v>
+        <v>0.002558231353759766</v>
       </c>
       <c r="G32" t="n">
         <v>112</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>csstk03.mtx</t>
+          <t>matrizes/slot02/bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1643,7 +1643,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="n">
-        <v>0.001400232315063477</v>
+        <v>0.001271247863769531</v>
       </c>
       <c r="G33" t="n">
         <v>112</v>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>csstk02.mtx</t>
+          <t>matrizes/slot02/bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1680,7 +1680,7 @@
         <v>28</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001419544219970703</v>
+        <v>0.001298189163208008</v>
       </c>
       <c r="G34" t="n">
         <v>66</v>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>csstk02.mtx</t>
+          <t>matrizes/slot02/bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1717,7 +1717,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0009772777557373047</v>
+        <v>0.0008058547973632812</v>
       </c>
       <c r="G35" t="n">
         <v>66</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>csstk05.mtx</t>
+          <t>matrizes/slot02/bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1754,7 +1754,7 @@
         <v>38</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002472639083862305</v>
+        <v>0.002397060394287109</v>
       </c>
       <c r="G36" t="n">
         <v>153</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>csstk05.mtx</t>
+          <t>matrizes/slot02/bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1791,7 +1791,7 @@
         <v>27</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001841545104980469</v>
+        <v>0.001814842224121094</v>
       </c>
       <c r="G37" t="n">
         <v>153</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cspwr08.mtx</t>
+          <t>matrizes/slot02/bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1828,7 +1828,7 @@
         <v>152</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2994740009307861</v>
+        <v>0.3266172409057617</v>
       </c>
       <c r="G38" t="n">
         <v>1624</v>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>cspwr08.mtx</t>
+          <t>matrizes/slot02/bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1865,7 +1865,7 @@
         <v>57</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1227829456329346</v>
+        <v>0.1216387748718262</v>
       </c>
       <c r="G39" t="n">
         <v>1624</v>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>csstk04.mtx</t>
+          <t>matrizes/slot02/bcsstk04.mtx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1902,7 +1902,7 @@
         <v>18</v>
       </c>
       <c r="F40" t="n">
-        <v>0.001229047775268555</v>
+        <v>0.001456022262573242</v>
       </c>
       <c r="G40" t="n">
         <v>132</v>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>csstk04.mtx</t>
+          <t>matrizes/slot02/bcsstk04.mtx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1939,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001029491424560547</v>
+        <v>0.001015424728393555</v>
       </c>
       <c r="G41" t="n">
         <v>132</v>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>csstk12.mtx</t>
+          <t>matrizes/slot03/bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1976,7 +1976,7 @@
         <v>28</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03603887557983398</v>
+        <v>0.04023289680480957</v>
       </c>
       <c r="G42" t="n">
         <v>1473</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>csstk12.mtx</t>
+          <t>matrizes/slot03/bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2013,7 +2013,7 @@
         <v>18</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02640914916992188</v>
+        <v>0.02770781517028809</v>
       </c>
       <c r="G43" t="n">
         <v>1473</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>csstk10.mtx</t>
+          <t>matrizes/slot03/bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2050,7 +2050,7 @@
         <v>55</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03240561485290527</v>
+        <v>0.03548407554626465</v>
       </c>
       <c r="G44" t="n">
         <v>1086</v>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>csstk10.mtx</t>
+          <t>matrizes/slot03/bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02736735343933105</v>
+        <v>0.02372288703918457</v>
       </c>
       <c r="G45" t="n">
         <v>1086</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>csstk13.mtx</t>
+          <t>matrizes/slot03/bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2124,7 +2124,7 @@
         <v>176</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4517767429351807</v>
+        <v>0.4643244743347168</v>
       </c>
       <c r="G46" t="n">
         <v>2003</v>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>csstk13.mtx</t>
+          <t>matrizes/slot03/bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2161,7 +2161,7 @@
         <v>130</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2857961654663086</v>
+        <v>0.326021671295166</v>
       </c>
       <c r="G47" t="n">
         <v>2003</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>csstk15.mtx</t>
+          <t>matrizes/slot03/bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2198,7 +2198,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6390600204467773</v>
+        <v>0.7373359203338623</v>
       </c>
       <c r="G48" t="n">
         <v>3948</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>csstk15.mtx</t>
+          <t>matrizes/slot03/bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2235,7 +2235,7 @@
         <v>59</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5692634582519531</v>
+        <v>0.5052964687347412</v>
       </c>
       <c r="G49" t="n">
         <v>3948</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>csstk07.mtx</t>
+          <t>matrizes/slot03/bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2272,7 +2272,7 @@
         <v>21</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00207209587097168</v>
+        <v>0.001830577850341797</v>
       </c>
       <c r="G50" t="n">
         <v>420</v>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>csstk07.mtx</t>
+          <t>matrizes/slot03/bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>14</v>
       </c>
       <c r="F51" t="n">
-        <v>0.001191139221191406</v>
+        <v>0.001358509063720703</v>
       </c>
       <c r="G51" t="n">
         <v>420</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>csstk09.mtx</t>
+          <t>matrizes/slot03/bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2346,7 +2346,7 @@
         <v>220</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1282248497009277</v>
+        <v>0.0967552661895752</v>
       </c>
       <c r="G52" t="n">
         <v>1083</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>csstk09.mtx</t>
+          <t>matrizes/slot03/bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2383,7 +2383,7 @@
         <v>90</v>
       </c>
       <c r="F53" t="n">
-        <v>0.06142401695251465</v>
+        <v>0.04646444320678711</v>
       </c>
       <c r="G53" t="n">
         <v>1083</v>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>csstk11.mtx</t>
+          <t>matrizes/slot03/bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2420,7 +2420,7 @@
         <v>28</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04574251174926758</v>
+        <v>0.04145407676696777</v>
       </c>
       <c r="G54" t="n">
         <v>1473</v>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>csstk11.mtx</t>
+          <t>matrizes/slot03/bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2457,7 +2457,7 @@
         <v>18</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03133964538574219</v>
+        <v>0.02779650688171387</v>
       </c>
       <c r="G55" t="n">
         <v>1473</v>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>csstk16.mtx</t>
+          <t>matrizes/slot03/bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2494,7 +2494,7 @@
         <v>35</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4393539428710938</v>
+        <v>0.6684658527374268</v>
       </c>
       <c r="G56" t="n">
         <v>4884</v>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>csstk16.mtx</t>
+          <t>matrizes/slot03/bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2531,7 +2531,7 @@
         <v>27</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3528213500976562</v>
+        <v>0.4158053398132324</v>
       </c>
       <c r="G57" t="n">
         <v>4884</v>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>csstk06.mtx</t>
+          <t>matrizes/slot03/bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2568,7 +2568,7 @@
         <v>21</v>
       </c>
       <c r="F58" t="n">
-        <v>0.05318117141723633</v>
+        <v>0.002172231674194336</v>
       </c>
       <c r="G58" t="n">
         <v>420</v>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>csstk06.mtx</t>
+          <t>matrizes/slot03/bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2605,7 +2605,7 @@
         <v>14</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00109100341796875</v>
+        <v>0.001396417617797852</v>
       </c>
       <c r="G59" t="n">
         <v>420</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>csstk08.mtx</t>
+          <t>matrizes/slot03/bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2642,7 +2642,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004384756088256836</v>
+        <v>0.006533384323120117</v>
       </c>
       <c r="G60" t="n">
         <v>1074</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>csstk08.mtx</t>
+          <t>matrizes/slot03/bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2679,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003763437271118164</v>
+        <v>0.004376888275146484</v>
       </c>
       <c r="G61" t="n">
         <v>1074</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>csstk20.mtx</t>
+          <t>matrizes/slot04/bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2716,7 +2716,7 @@
         <v>30</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002207279205322266</v>
+        <v>0.002715587615966797</v>
       </c>
       <c r="G62" t="n">
         <v>485</v>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>csstk20.mtx</t>
+          <t>matrizes/slot04/bcsstk20.mtx</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2753,7 +2753,7 @@
         <v>20</v>
       </c>
       <c r="F63" t="n">
-        <v>0.002008676528930664</v>
+        <v>0.002223730087280273</v>
       </c>
       <c r="G63" t="n">
         <v>485</v>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>csstk25.mtx</t>
+          <t>matrizes/slot04/bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2790,7 +2790,7 @@
         <v>23</v>
       </c>
       <c r="F64" t="n">
-        <v>3.256300926208496</v>
+        <v>3.56154727935791</v>
       </c>
       <c r="G64" t="n">
         <v>15439</v>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>csstk25.mtx</t>
+          <t>matrizes/slot04/bcsstk25.mtx</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2827,7 +2827,7 @@
         <v>16</v>
       </c>
       <c r="F65" t="n">
-        <v>2.206006050109863</v>
+        <v>2.530638456344604</v>
       </c>
       <c r="G65" t="n">
         <v>15439</v>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>csstk22.mtx</t>
+          <t>matrizes/slot04/bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2864,7 +2864,7 @@
         <v>32</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002062082290649414</v>
+        <v>0.002031326293945312</v>
       </c>
       <c r="G66" t="n">
         <v>138</v>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>csstk22.mtx</t>
+          <t>matrizes/slot04/bcsstk22.mtx</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2901,7 +2901,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001151561737060547</v>
+        <v>0.0007090568542480469</v>
       </c>
       <c r="G67" t="n">
         <v>138</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>csstk26.mtx</t>
+          <t>matrizes/slot04/bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2938,7 +2938,7 @@
         <v>46</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09722375869750977</v>
+        <v>0.1257402896881104</v>
       </c>
       <c r="G68" t="n">
         <v>1922</v>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>csstk26.mtx</t>
+          <t>matrizes/slot04/bcsstk26.mtx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2975,7 +2975,7 @@
         <v>34</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07170248031616211</v>
+        <v>0.1053287982940674</v>
       </c>
       <c r="G69" t="n">
         <v>1922</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>csstk27.mtx</t>
+          <t>matrizes/slot04/bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3012,7 +3012,7 @@
         <v>85</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0486605167388916</v>
+        <v>0.07463860511779785</v>
       </c>
       <c r="G70" t="n">
         <v>1224</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>csstk27.mtx</t>
+          <t>matrizes/slot04/bcsstk27.mtx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3049,7 +3049,7 @@
         <v>49</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06772756576538086</v>
+        <v>0.04778504371643066</v>
       </c>
       <c r="G71" t="n">
         <v>1224</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>csstk21.mtx</t>
+          <t>matrizes/slot04/bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3086,7 +3086,7 @@
         <v>335</v>
       </c>
       <c r="F72" t="n">
-        <v>2.542224645614624</v>
+        <v>3.052087306976318</v>
       </c>
       <c r="G72" t="n">
         <v>3600</v>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>csstk21.mtx</t>
+          <t>matrizes/slot04/bcsstk21.mtx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3123,7 +3123,7 @@
         <v>185</v>
       </c>
       <c r="F73" t="n">
-        <v>1.537150621414185</v>
+        <v>1.475368976593018</v>
       </c>
       <c r="G73" t="n">
         <v>3600</v>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>csstk19.mtx</t>
+          <t>matrizes/slot04/bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3160,7 +3160,7 @@
         <v>23</v>
       </c>
       <c r="F74" t="n">
-        <v>0.008951187133789062</v>
+        <v>0.008915424346923828</v>
       </c>
       <c r="G74" t="n">
         <v>817</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>csstk19.mtx</t>
+          <t>matrizes/slot04/bcsstk19.mtx</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3197,7 +3197,7 @@
         <v>16</v>
       </c>
       <c r="F75" t="n">
-        <v>0.005597114562988281</v>
+        <v>0.006508827209472656</v>
       </c>
       <c r="G75" t="n">
         <v>817</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>csstk23.mtx</t>
+          <t>matrizes/slot04/bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3234,7 +3234,7 @@
         <v>31</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1924622058868408</v>
+        <v>0.2346835136413574</v>
       </c>
       <c r="G76" t="n">
         <v>3134</v>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>csstk23.mtx</t>
+          <t>matrizes/slot04/bcsstk23.mtx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3271,7 +3271,7 @@
         <v>19</v>
       </c>
       <c r="F77" t="n">
-        <v>0.100994348526001</v>
+        <v>0.1031062602996826</v>
       </c>
       <c r="G77" t="n">
         <v>3134</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>csstk17.mtx</t>
+          <t>matrizes/slot04/bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3308,7 +3308,7 @@
         <v>22</v>
       </c>
       <c r="F78" t="n">
-        <v>1.442775249481201</v>
+        <v>1.526764869689941</v>
       </c>
       <c r="G78" t="n">
         <v>10974</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>csstk17.mtx</t>
+          <t>matrizes/slot04/bcsstk17.mtx</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3345,7 +3345,7 @@
         <v>18</v>
       </c>
       <c r="F79" t="n">
-        <v>1.397281646728516</v>
+        <v>1.236510038375854</v>
       </c>
       <c r="G79" t="n">
         <v>10974</v>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>csstk18.mtx</t>
+          <t>matrizes/slot04/bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3382,7 +3382,7 @@
         <v>39</v>
       </c>
       <c r="F80" t="n">
-        <v>3.182233333587646</v>
+        <v>2.878980159759521</v>
       </c>
       <c r="G80" t="n">
         <v>11948</v>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>csstk18.mtx</t>
+          <t>matrizes/slot04/bcsstk18.mtx</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3419,7 +3419,7 @@
         <v>32</v>
       </c>
       <c r="F81" t="n">
-        <v>2.916590452194214</v>
+        <v>2.402257204055786</v>
       </c>
       <c r="G81" t="n">
         <v>11948</v>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>csstm20.mtx</t>
+          <t>matrizes/slot06/bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3456,7 +3456,7 @@
         <v>146</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01925945281982422</v>
+        <v>0.0152435302734375</v>
       </c>
       <c r="G82" t="n">
         <v>485</v>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>csstm20.mtx</t>
+          <t>matrizes/slot06/bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3493,7 +3493,7 @@
         <v>113</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01434540748596191</v>
+        <v>0.01096725463867188</v>
       </c>
       <c r="G83" t="n">
         <v>485</v>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>csstm19.mtx</t>
+          <t>matrizes/slot06/bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>130</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02736616134643555</v>
+        <v>0.02584052085876465</v>
       </c>
       <c r="G84" t="n">
         <v>817</v>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>csstm19.mtx</t>
+          <t>matrizes/slot06/bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3567,7 +3567,7 @@
         <v>87</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01653122901916504</v>
+        <v>0.01544570922851562</v>
       </c>
       <c r="G85" t="n">
         <v>817</v>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>csstm11.mtx</t>
+          <t>matrizes/slot06/bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3604,7 +3604,7 @@
         <v>18</v>
       </c>
       <c r="F86" t="n">
-        <v>0.01760339736938477</v>
+        <v>0.01680088043212891</v>
       </c>
       <c r="G86" t="n">
         <v>1473</v>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>csstm11.mtx</t>
+          <t>matrizes/slot06/bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3641,7 +3641,7 @@
         <v>11</v>
       </c>
       <c r="F87" t="n">
-        <v>0.01206874847412109</v>
+        <v>0.01027870178222656</v>
       </c>
       <c r="G87" t="n">
         <v>1473</v>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>csstm22.mtx</t>
+          <t>matrizes/slot06/bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3678,7 +3678,7 @@
         <v>29</v>
       </c>
       <c r="F88" t="n">
-        <v>0.001586198806762695</v>
+        <v>0.001508712768554688</v>
       </c>
       <c r="G88" t="n">
         <v>138</v>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>csstm22.mtx</t>
+          <t>matrizes/slot06/bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3715,7 +3715,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0008745193481445312</v>
+        <v>0.001175642013549805</v>
       </c>
       <c r="G89" t="n">
         <v>138</v>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>csstm12.mtx</t>
+          <t>matrizes/slot06/bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3752,7 +3752,7 @@
         <v>122</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1512916088104248</v>
+        <v>0.1583681106567383</v>
       </c>
       <c r="G90" t="n">
         <v>1473</v>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>csstm12.mtx</t>
+          <t>matrizes/slot06/bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3789,7 +3789,7 @@
         <v>75</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0887153148651123</v>
+        <v>0.09806418418884277</v>
       </c>
       <c r="G91" t="n">
         <v>1473</v>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>csstm07.mtx</t>
+          <t>matrizes/slot06/bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3826,7 +3826,7 @@
         <v>103</v>
       </c>
       <c r="F92" t="n">
-        <v>0.008011341094970703</v>
+        <v>0.008618354797363281</v>
       </c>
       <c r="G92" t="n">
         <v>420</v>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>csstm07.mtx</t>
+          <t>matrizes/slot06/bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3863,7 +3863,7 @@
         <v>66</v>
       </c>
       <c r="F93" t="n">
-        <v>0.005194902420043945</v>
+        <v>0.00557398796081543</v>
       </c>
       <c r="G93" t="n">
         <v>420</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>csstm13.mtx</t>
+          <t>matrizes/slot06/bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3900,7 +3900,7 @@
         <v>43</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09042978286743164</v>
+        <v>0.09532308578491211</v>
       </c>
       <c r="G94" t="n">
         <v>2003</v>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>csstm13.mtx</t>
+          <t>matrizes/slot06/bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3937,7 +3937,7 @@
         <v>22</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04574704170227051</v>
+        <v>0.05355978012084961</v>
       </c>
       <c r="G95" t="n">
         <v>2003</v>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>csstm08.mtx</t>
+          <t>matrizes/slot06/bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3974,7 +3974,7 @@
         <v>29</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01381039619445801</v>
+        <v>0.02800536155700684</v>
       </c>
       <c r="G96" t="n">
         <v>1074</v>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>csstm08.mtx</t>
+          <t>matrizes/slot06/bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4011,7 +4011,7 @@
         <v>16</v>
       </c>
       <c r="F97" t="n">
-        <v>0.006519079208374023</v>
+        <v>0.03169965744018555</v>
       </c>
       <c r="G97" t="n">
         <v>1074</v>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>csstm09.mtx</t>
+          <t>matrizes/slot06/bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4048,7 +4048,7 @@
         <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>0.002532005310058594</v>
+        <v>0.001852989196777344</v>
       </c>
       <c r="G98" t="n">
         <v>1083</v>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>csstm09.mtx</t>
+          <t>matrizes/slot06/bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4085,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>0.002127170562744141</v>
+        <v>0.002072572708129883</v>
       </c>
       <c r="G99" t="n">
         <v>1083</v>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>csstm10.mtx</t>
+          <t>matrizes/slot06/bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4122,7 +4122,7 @@
         <v>141</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05051159858703613</v>
+        <v>0.04656791687011719</v>
       </c>
       <c r="G100" t="n">
         <v>1086</v>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>csstm10.mtx</t>
+          <t>matrizes/slot06/bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4159,7 +4159,7 @@
         <v>78</v>
       </c>
       <c r="F101" t="n">
-        <v>0.02271938323974609</v>
+        <v>0.03129839897155762</v>
       </c>
       <c r="G101" t="n">
         <v>1086</v>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>an_187.mtx</t>
+          <t>matrizes/slot09/can_187.mtx</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4196,7 +4196,7 @@
         <v>58</v>
       </c>
       <c r="F102" t="n">
-        <v>0.002024412155151367</v>
+        <v>0.002664089202880859</v>
       </c>
       <c r="G102" t="n">
         <v>187</v>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>an_187.mtx</t>
+          <t>matrizes/slot09/can_187.mtx</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4233,7 +4233,7 @@
         <v>24</v>
       </c>
       <c r="F103" t="n">
-        <v>0.00102686882019043</v>
+        <v>0.001201868057250977</v>
       </c>
       <c r="G103" t="n">
         <v>187</v>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>an_229.mtx</t>
+          <t>matrizes/slot09/can_229.mtx</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4270,7 +4270,7 @@
         <v>13</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0005636215209960938</v>
+        <v>0.0007159709930419922</v>
       </c>
       <c r="G104" t="n">
         <v>229</v>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>an_229.mtx</t>
+          <t>matrizes/slot09/can_229.mtx</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4307,7 +4307,7 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>0.000415802001953125</v>
+        <v>0.0004594326019287109</v>
       </c>
       <c r="G105" t="n">
         <v>229</v>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>an_161.mtx</t>
+          <t>matrizes/slot09/can_161.mtx</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4344,7 +4344,7 @@
         <v>21</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0008478164672851562</v>
+        <v>0.001032590866088867</v>
       </c>
       <c r="G106" t="n">
         <v>161</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>an_161.mtx</t>
+          <t>matrizes/slot09/can_161.mtx</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4381,7 +4381,7 @@
         <v>14</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0007345676422119141</v>
+        <v>0.0006325244903564453</v>
       </c>
       <c r="G107" t="n">
         <v>161</v>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>an_292.mtx</t>
+          <t>matrizes/slot09/can_292.mtx</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4418,7 +4418,7 @@
         <v>11</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0007002353668212891</v>
+        <v>0.0006639957427978516</v>
       </c>
       <c r="G108" t="n">
         <v>292</v>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>an_292.mtx</t>
+          <t>matrizes/slot09/can_292.mtx</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4455,7 +4455,7 @@
         <v>9</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0005695819854736328</v>
+        <v>0.0007345676422119141</v>
       </c>
       <c r="G109" t="n">
         <v>292</v>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>an_1054.mtx</t>
+          <t>matrizes/slot09/can_1054.mtx</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4492,7 +4492,7 @@
         <v>42</v>
       </c>
       <c r="F110" t="n">
-        <v>0.01699399948120117</v>
+        <v>0.01798152923583984</v>
       </c>
       <c r="G110" t="n">
         <v>1054</v>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>an_1054.mtx</t>
+          <t>matrizes/slot09/can_1054.mtx</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4529,7 +4529,7 @@
         <v>28</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01003575325012207</v>
+        <v>0.01065349578857422</v>
       </c>
       <c r="G111" t="n">
         <v>1054</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>an_445.mtx</t>
+          <t>matrizes/slot09/can_445.mtx</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4566,7 +4566,7 @@
         <v>43</v>
       </c>
       <c r="F112" t="n">
-        <v>0.003086566925048828</v>
+        <v>0.002927541732788086</v>
       </c>
       <c r="G112" t="n">
         <v>445</v>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>an_445.mtx</t>
+          <t>matrizes/slot09/can_445.mtx</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4603,7 +4603,7 @@
         <v>20</v>
       </c>
       <c r="F113" t="n">
-        <v>0.001348257064819336</v>
+        <v>0.001415491104125977</v>
       </c>
       <c r="G113" t="n">
         <v>445</v>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>an_256.mtx</t>
+          <t>matrizes/slot09/can_256.mtx</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4640,7 +4640,7 @@
         <v>16</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0008978843688964844</v>
+        <v>0.0009207725524902344</v>
       </c>
       <c r="G114" t="n">
         <v>256</v>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>an_256.mtx</t>
+          <t>matrizes/slot09/can_256.mtx</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4677,7 +4677,7 @@
         <v>14</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0007371902465820312</v>
+        <v>0.0008187294006347656</v>
       </c>
       <c r="G115" t="n">
         <v>256</v>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>an_268.mtx</t>
+          <t>matrizes/slot09/can_268.mtx</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4714,7 +4714,7 @@
         <v>18</v>
       </c>
       <c r="F116" t="n">
-        <v>0.001041889190673828</v>
+        <v>0.001061439514160156</v>
       </c>
       <c r="G116" t="n">
         <v>268</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>an_268.mtx</t>
+          <t>matrizes/slot09/can_268.mtx</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4751,7 +4751,7 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0005559921264648438</v>
+        <v>0.0006670951843261719</v>
       </c>
       <c r="G117" t="n">
         <v>268</v>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>an_715.mtx</t>
+          <t>matrizes/slot09/can_715.mtx</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4788,7 +4788,7 @@
         <v>48</v>
       </c>
       <c r="F118" t="n">
-        <v>0.008879899978637695</v>
+        <v>0.01223993301391602</v>
       </c>
       <c r="G118" t="n">
         <v>715</v>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>an_715.mtx</t>
+          <t>matrizes/slot09/can_715.mtx</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4825,7 +4825,7 @@
         <v>29</v>
       </c>
       <c r="F119" t="n">
-        <v>0.00472712516784668</v>
+        <v>0.009335756301879883</v>
       </c>
       <c r="G119" t="n">
         <v>715</v>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>an_634.mtx</t>
+          <t>matrizes/slot09/can_634.mtx</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4862,7 +4862,7 @@
         <v>74</v>
       </c>
       <c r="F120" t="n">
-        <v>0.008355379104614258</v>
+        <v>0.01852846145629883</v>
       </c>
       <c r="G120" t="n">
         <v>634</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>an_634.mtx</t>
+          <t>matrizes/slot09/can_634.mtx</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4899,7 +4899,7 @@
         <v>56</v>
       </c>
       <c r="F121" t="n">
-        <v>0.006777763366699219</v>
+        <v>0.01413655281066895</v>
       </c>
       <c r="G121" t="n">
         <v>634</v>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>k400.mtx</t>
+          <t>matrizes/slot10/ck400.mtx</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4936,7 +4936,7 @@
         <v>10</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0005698204040527344</v>
+        <v>0.001064777374267578</v>
       </c>
       <c r="G122" t="n">
         <v>400</v>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>k400.mtx</t>
+          <t>matrizes/slot10/ck400.mtx</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4973,7 +4973,7 @@
         <v>9</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0005588531494140625</v>
+        <v>0.0009291172027587891</v>
       </c>
       <c r="G123" t="n">
         <v>400</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>wt_234.mtx</t>
+          <t>matrizes/slot10/dwt_234.mtx</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5010,7 +5010,7 @@
         <v>39</v>
       </c>
       <c r="F124" t="n">
-        <v>0.001479625701904297</v>
+        <v>0.002971887588500977</v>
       </c>
       <c r="G124" t="n">
         <v>234</v>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>wt_234.mtx</t>
+          <t>matrizes/slot10/dwt_234.mtx</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5047,7 +5047,7 @@
         <v>18</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0008723735809326172</v>
+        <v>0.001339912414550781</v>
       </c>
       <c r="G125" t="n">
         <v>234</v>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>k104.mtx</t>
+          <t>matrizes/slot10/ck104.mtx</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5084,7 +5084,7 @@
         <v>10</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0002985000610351562</v>
+        <v>0.0005304813385009766</v>
       </c>
       <c r="G126" t="n">
         <v>104</v>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>k104.mtx</t>
+          <t>matrizes/slot10/ck104.mtx</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5121,7 +5121,7 @@
         <v>9</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0003905296325683594</v>
+        <v>0.0004966259002685547</v>
       </c>
       <c r="G127" t="n">
         <v>104</v>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>wt_221.mtx</t>
+          <t>matrizes/slot10/dwt_221.mtx</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5158,7 +5158,7 @@
         <v>52</v>
       </c>
       <c r="F128" t="n">
-        <v>0.002315044403076172</v>
+        <v>0.003967046737670898</v>
       </c>
       <c r="G128" t="n">
         <v>221</v>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>wt_221.mtx</t>
+          <t>matrizes/slot10/dwt_221.mtx</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5195,7 +5195,7 @@
         <v>11</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0008676052093505859</v>
+        <v>0.0007560253143310547</v>
       </c>
       <c r="G129" t="n">
         <v>221</v>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>w2048.mtx</t>
+          <t>matrizes/slot10/dw2048.mtx</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5232,7 +5232,7 @@
         <v>100</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2350118160247803</v>
+        <v>0.2433764934539795</v>
       </c>
       <c r="G130" t="n">
         <v>2048</v>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>w2048.mtx</t>
+          <t>matrizes/slot10/dw2048.mtx</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5269,7 +5269,7 @@
         <v>64</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1448395252227783</v>
+        <v>0.1221868991851807</v>
       </c>
       <c r="G131" t="n">
         <v>2048</v>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>wt_162.mtx</t>
+          <t>matrizes/slot10/dwt_162.mtx</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5306,7 +5306,7 @@
         <v>60</v>
       </c>
       <c r="F132" t="n">
-        <v>0.002948284149169922</v>
+        <v>0.002860069274902344</v>
       </c>
       <c r="G132" t="n">
         <v>162</v>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>wt_162.mtx</t>
+          <t>matrizes/slot10/dwt_162.mtx</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5343,7 +5343,7 @@
         <v>33</v>
       </c>
       <c r="F133" t="n">
-        <v>0.001753091812133789</v>
+        <v>0.001581668853759766</v>
       </c>
       <c r="G133" t="n">
         <v>162</v>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>wt_198.mtx</t>
+          <t>matrizes/slot10/dwt_198.mtx</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5380,7 +5380,7 @@
         <v>82</v>
       </c>
       <c r="F134" t="n">
-        <v>0.004431724548339844</v>
+        <v>0.004383563995361328</v>
       </c>
       <c r="G134" t="n">
         <v>198</v>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>wt_198.mtx</t>
+          <t>matrizes/slot10/dwt_198.mtx</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5417,7 +5417,7 @@
         <v>20</v>
       </c>
       <c r="F135" t="n">
-        <v>0.001006364822387695</v>
+        <v>0.001110076904296875</v>
       </c>
       <c r="G135" t="n">
         <v>198</v>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>urtis54.mtx</t>
+          <t>matrizes/slot10/curtis54.mtx</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5454,7 +5454,7 @@
         <v>48</v>
       </c>
       <c r="F136" t="n">
-        <v>0.001828432083129883</v>
+        <v>0.001708745956420898</v>
       </c>
       <c r="G136" t="n">
         <v>54</v>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>urtis54.mtx</t>
+          <t>matrizes/slot10/curtis54.mtx</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5491,7 +5491,7 @@
         <v>32</v>
       </c>
       <c r="F137" t="n">
-        <v>0.001093864440917969</v>
+        <v>0.001219987869262695</v>
       </c>
       <c r="G137" t="n">
         <v>54</v>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>an_1072.mtx</t>
+          <t>matrizes/slot10/can_1072.mtx</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5528,7 +5528,7 @@
         <v>45</v>
       </c>
       <c r="F138" t="n">
-        <v>0.01753735542297363</v>
+        <v>0.0208585262298584</v>
       </c>
       <c r="G138" t="n">
         <v>1072</v>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>an_1072.mtx</t>
+          <t>matrizes/slot10/can_1072.mtx</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5565,7 +5565,7 @@
         <v>29</v>
       </c>
       <c r="F139" t="n">
-        <v>0.009829998016357422</v>
+        <v>0.01313567161560059</v>
       </c>
       <c r="G139" t="n">
         <v>1072</v>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>wt_193.mtx</t>
+          <t>matrizes/slot10/dwt_193.mtx</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5602,7 +5602,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0006976127624511719</v>
+        <v>0.001229286193847656</v>
       </c>
       <c r="G140" t="n">
         <v>193</v>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>wt_193.mtx</t>
+          <t>matrizes/slot10/dwt_193.mtx</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5639,7 +5639,7 @@
         <v>14</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0006892681121826172</v>
+        <v>0.001711368560791016</v>
       </c>
       <c r="G141" t="n">
         <v>193</v>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>idap005.mtx</t>
+          <t>matrizes/slot11/fidap005.mtx</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5676,7 +5676,7 @@
         <v>45</v>
       </c>
       <c r="F142" t="n">
-        <v>0.001214742660522461</v>
+        <v>0.002341032028198242</v>
       </c>
       <c r="G142" t="n">
         <v>27</v>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>idap005.mtx</t>
+          <t>matrizes/slot11/fidap005.mtx</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5713,7 +5713,7 @@
         <v>30</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00086212158203125</v>
+        <v>0.0009596347808837891</v>
       </c>
       <c r="G143" t="n">
         <v>27</v>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>r_30_30.mtx</t>
+          <t>matrizes/slot11/gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5750,7 +5750,7 @@
         <v>113</v>
       </c>
       <c r="F144" t="n">
-        <v>0.250744104385376</v>
+        <v>0.2791383266448975</v>
       </c>
       <c r="G144" t="n">
         <v>900</v>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>r_30_30.mtx</t>
+          <t>matrizes/slot11/gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5787,7 +5787,7 @@
         <v>49</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1261172294616699</v>
+        <v>0.131467342376709</v>
       </c>
       <c r="G145" t="n">
         <v>900</v>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>matrizes/slot11/e05r0100.mtx</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5824,7 +5824,7 @@
         <v>233</v>
       </c>
       <c r="F146" t="n">
-        <v>0.02149772644042969</v>
+        <v>0.0149235725402832</v>
       </c>
       <c r="G146" t="n">
         <v>236</v>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>matrizes/slot11/e05r0100.mtx</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5861,7 +5861,7 @@
         <v>37</v>
       </c>
       <c r="F147" t="n">
-        <v>0.003773927688598633</v>
+        <v>0.002433061599731445</v>
       </c>
       <c r="G147" t="n">
         <v>236</v>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>csstm23.mtx</t>
+          <t>matrizes/slot11/bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5898,7 +5898,7 @@
         <v>16</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1200833320617676</v>
+        <v>0.07775616645812988</v>
       </c>
       <c r="G148" t="n">
         <v>3134</v>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>csstm23.mtx</t>
+          <t>matrizes/slot11/bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5935,7 +5935,7 @@
         <v>11</v>
       </c>
       <c r="F149" t="n">
-        <v>0.06464219093322754</v>
+        <v>0.05521106719970703</v>
       </c>
       <c r="G149" t="n">
         <v>3134</v>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>wt_1005.mtx</t>
+          <t>matrizes/slot11/dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5972,7 +5972,7 @@
         <v>14</v>
       </c>
       <c r="F150" t="n">
-        <v>0.005440473556518555</v>
+        <v>0.006502628326416016</v>
       </c>
       <c r="G150" t="n">
         <v>1005</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>wt_1005.mtx</t>
+          <t>matrizes/slot11/dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6009,7 +6009,7 @@
         <v>12</v>
       </c>
       <c r="F151" t="n">
-        <v>0.004436016082763672</v>
+        <v>0.004765987396240234</v>
       </c>
       <c r="G151" t="n">
         <v>1005</v>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>matrizes/slot11/sherman4.mtx</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6046,7 +6046,7 @@
         <v>100</v>
       </c>
       <c r="F152" t="n">
-        <v>0.04117274284362793</v>
+        <v>0.04089736938476562</v>
       </c>
       <c r="G152" t="n">
         <v>1104</v>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>matrizes/slot11/sherman4.mtx</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6083,7 +6083,7 @@
         <v>39</v>
       </c>
       <c r="F153" t="n">
-        <v>0.01604843139648438</v>
+        <v>0.01339173316955566</v>
       </c>
       <c r="G153" t="n">
         <v>1104</v>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>wt_1242.mtx</t>
+          <t>matrizes/slot11/dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6120,7 +6120,7 @@
         <v>105</v>
       </c>
       <c r="F154" t="n">
-        <v>0.06908488273620605</v>
+        <v>0.06082487106323242</v>
       </c>
       <c r="G154" t="n">
         <v>1242</v>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>wt_1242.mtx</t>
+          <t>matrizes/slot11/dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6157,7 +6157,7 @@
         <v>37</v>
       </c>
       <c r="F155" t="n">
-        <v>0.03062343597412109</v>
+        <v>0.02736663818359375</v>
       </c>
       <c r="G155" t="n">
         <v>1242</v>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>wt_1007.mtx</t>
+          <t>matrizes/slot11/dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6194,7 +6194,7 @@
         <v>61</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0238947868347168</v>
+        <v>0.0232701301574707</v>
       </c>
       <c r="G156" t="n">
         <v>1007</v>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>wt_1007.mtx</t>
+          <t>matrizes/slot11/dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6231,7 +6231,7 @@
         <v>45</v>
       </c>
       <c r="F157" t="n">
-        <v>0.01480841636657715</v>
+        <v>0.01485061645507812</v>
       </c>
       <c r="G157" t="n">
         <v>1007</v>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>wt_245.mtx</t>
+          <t>matrizes/slot11/dwt_245.mtx</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6268,7 +6268,7 @@
         <v>48</v>
       </c>
       <c r="F158" t="n">
-        <v>0.002051830291748047</v>
+        <v>0.002195835113525391</v>
       </c>
       <c r="G158" t="n">
         <v>245</v>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>wt_245.mtx</t>
+          <t>matrizes/slot11/dwt_245.mtx</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6305,7 +6305,7 @@
         <v>35</v>
       </c>
       <c r="F159" t="n">
-        <v>0.001832962036132812</v>
+        <v>0.001685142517089844</v>
       </c>
       <c r="G159" t="n">
         <v>245</v>

--- a/resultados/resultados_preliminares.xlsx
+++ b/resultados/resultados_preliminares.xlsx
@@ -496,7 +496,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>2.886626482009888</v>
+        <v>2.80007791519165</v>
       </c>
       <c r="G2" t="n">
         <v>15439</v>
@@ -533,7 +533,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006165504455566406</v>
+        <v>0.0007288455963134766</v>
       </c>
       <c r="G3" t="n">
         <v>66</v>
@@ -570,7 +570,7 @@
         <v>38</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002132892608642578</v>
+        <v>0.001278162002563477</v>
       </c>
       <c r="G4" t="n">
         <v>153</v>
@@ -607,7 +607,7 @@
         <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03148913383483887</v>
+        <v>0.03282737731933594</v>
       </c>
       <c r="G5" t="n">
         <v>1224</v>

--- a/resultados/resultados_preliminares.xlsx
+++ b/resultados/resultados_preliminares.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk25.mtx</t>
+          <t>matrizes/slot01/arc130.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1060008038118777</v>
+        <v>2.366980478285793</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="F2" t="n">
-        <v>2.80007791519165</v>
+        <v>0.009255886077880859</v>
       </c>
       <c r="G2" t="n">
-        <v>15439</v>
+        <v>130</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk02.mtx</t>
+          <t>matrizes/slot01/bcspwr04.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,20 +527,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18225.28861825787</v>
+        <v>10.11425564616074</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0007288455963134766</v>
+        <v>0.00127720832824707</v>
       </c>
       <c r="G3" t="n">
-        <v>66</v>
+        <v>274</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk05.mtx</t>
+          <t>matrizes/slot01/bcspwr02.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,20 +564,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6197043.861659037</v>
+        <v>4.308258605005528</v>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001278162002563477</v>
+        <v>0.001053094863891602</v>
       </c>
       <c r="G4" t="n">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>matrizes/slot_artigo/bcsstk27.mtx</t>
+          <t>matrizes/slot01/bcspwr03.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,23 +601,2798 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>5.104674213788415</v>
+      </c>
+      <c r="E5" t="n">
+        <v>35</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001300811767578125</v>
+      </c>
+      <c r="G5" t="n">
+        <v>118</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>matrizes/slot01/1138_bus.mtx</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>30115.82629984464</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01144003868103027</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1138</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>matrizes/slot01/685_bus.mtx</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>26186.48629082991</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0006477832794189453</v>
+      </c>
+      <c r="G7" t="n">
+        <v>685</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>matrizes/slot01/ash292.mtx</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>9.151774331566605</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.002919435501098633</v>
+      </c>
+      <c r="G8" t="n">
+        <v>292</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>matrizes/slot01/494_bus.mtx</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2220.967903929713</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0005915164947509766</v>
+      </c>
+      <c r="G9" t="n">
+        <v>494</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>matrizes/slot01/ash85.mtx</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>6.721075798530548</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.001096487045288086</v>
+      </c>
+      <c r="G10" t="n">
+        <v>85</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>matrizes/slot01/662_bus.mtx</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1422.994613068716</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0006766319274902344</v>
+      </c>
+      <c r="G11" t="n">
+        <v>662</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>matrizes/slot02/bcspwr05.mtx</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5.177624323644659</v>
+      </c>
+      <c r="E12" t="n">
+        <v>81</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.006893396377563477</v>
+      </c>
+      <c r="G12" t="n">
+        <v>443</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>matrizes/slot02/bcsstk01.mtx</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3014181127.26153</v>
+      </c>
+      <c r="E13" t="n">
+        <v>134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.004590511322021484</v>
+      </c>
+      <c r="G13" t="n">
+        <v>48</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>matrizes/slot02/bcspwr10.mtx</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6.809359881800338</v>
+      </c>
+      <c r="E14" t="n">
+        <v>186</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.70903491973877</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5300</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>matrizes/slot02/bcspwr06.mtx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5.618009280534263</v>
+      </c>
+      <c r="E15" t="n">
+        <v>124</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1368327140808105</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1454</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>matrizes/slot02/bcspwr07.mtx</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5.664183085589989</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1379883289337158</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1612</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>matrizes/slot02/bcsstk03.mtx</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>199732738576.2932</v>
+      </c>
+      <c r="E17" t="n">
+        <v>25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.001422882080078125</v>
+      </c>
+      <c r="G17" t="n">
+        <v>112</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>matrizes/slot02/bcsstk02.mtx</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>18225.28861825787</v>
+      </c>
+      <c r="E18" t="n">
+        <v>28</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.001025676727294922</v>
+      </c>
+      <c r="G18" t="n">
+        <v>66</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>matrizes/slot02/bcsstk05.mtx</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6197043.861659037</v>
+      </c>
+      <c r="E19" t="n">
+        <v>38</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.002158164978027344</v>
+      </c>
+      <c r="G19" t="n">
+        <v>153</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>matrizes/slot02/bcspwr08.mtx</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5.783741344069723</v>
+      </c>
+      <c r="E20" t="n">
+        <v>152</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2286422252655029</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1624</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>matrizes/slot02/bcsstk04.mtx</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>9549224.597917093</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001001596450805664</v>
+      </c>
+      <c r="G21" t="n">
+        <v>132</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>matrizes/slot03/bcsstk12.mtx</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>654926088.2605356</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03204894065856934</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1473</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>matrizes/slot03/bcsstk10.mtx</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>44724660.27811407</v>
+      </c>
+      <c r="E23" t="n">
+        <v>55</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.02433276176452637</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1086</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>matrizes/slot03/bcsstk13.mtx</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3112885321254.005</v>
+      </c>
+      <c r="E24" t="n">
+        <v>176</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3835117816925049</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>matrizes/slot03/bcsstk15.mtx</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>6537666522.476533</v>
+      </c>
+      <c r="E25" t="n">
+        <v>79</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6262156963348389</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3948</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>matrizes/slot03/bcsstk07.mtx</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3485075325.977184</v>
+      </c>
+      <c r="E26" t="n">
+        <v>21</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.00207209587097168</v>
+      </c>
+      <c r="G26" t="n">
+        <v>420</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>matrizes/slot03/bcsstk09.mtx</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>67579067.21497774</v>
+      </c>
+      <c r="E27" t="n">
+        <v>220</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.07986044883728027</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1083</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>matrizes/slot03/bcsstk11.mtx</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>654926088.2605356</v>
+      </c>
+      <c r="E28" t="n">
+        <v>28</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03203034400939941</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1473</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>matrizes/slot03/bcsstk16.mtx</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4085202504.101666</v>
+      </c>
+      <c r="E29" t="n">
+        <v>35</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.4337069988250732</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4884</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>matrizes/slot03/bcsstk06.mtx</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3485075325.977184</v>
+      </c>
+      <c r="E30" t="n">
+        <v>21</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.001778602600097656</v>
+      </c>
+      <c r="G30" t="n">
+        <v>420</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>matrizes/slot03/bcsstk08.mtx</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>76569996762.00502</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.005025625228881836</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1074</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>matrizes/slot04/bcsstk20.mtx</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1.261491349765899e+16</v>
+      </c>
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.002715826034545898</v>
+      </c>
+      <c r="G32" t="n">
+        <v>485</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>matrizes/slot04/bcsstk25.mtx</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1060008038118777</v>
+      </c>
+      <c r="E33" t="n">
+        <v>23</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.953005075454712</v>
+      </c>
+      <c r="G33" t="n">
+        <v>15439</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>matrizes/slot04/bcsstk22.mtx</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>5849890.36991932</v>
+      </c>
+      <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.002160072326660156</v>
+      </c>
+      <c r="G34" t="n">
+        <v>138</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>matrizes/slot04/bcsstk26.mtx</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>158268836382.195</v>
+      </c>
+      <c r="E35" t="n">
+        <v>46</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.09817838668823242</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1922</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>matrizes/slot04/bcsstk27.mtx</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>3464617.500374258</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E36" t="n">
         <v>85</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.03282737731933594</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F36" t="n">
+        <v>0.04805183410644531</v>
+      </c>
+      <c r="G36" t="n">
         <v>1224</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>matrizes/slot04/bcsstk21.mtx</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>127119840.5799289</v>
+      </c>
+      <c r="E37" t="n">
+        <v>335</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.3714439868927</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3600</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>matrizes/slot04/bcsstk19.mtx</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>192111739442336.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>23</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.00549626350402832</v>
+      </c>
+      <c r="G38" t="n">
+        <v>817</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>matrizes/slot04/bcsstk23.mtx</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2.257987991320515e+16</v>
+      </c>
+      <c r="E39" t="n">
+        <v>31</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1464524269104004</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3134</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>matrizes/slot04/bcsstk17.mtx</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>12960385068.16294</v>
+      </c>
+      <c r="E40" t="n">
+        <v>22</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.322331666946411</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10974</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>matrizes/slot04/bcsstk18.mtx</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>42951395539.5179</v>
+      </c>
+      <c r="E41" t="n">
+        <v>39</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.89242959022522</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11948</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>matrizes/slot06/bcsstm20.mtx</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>47756316.74668948</v>
+      </c>
+      <c r="E42" t="n">
+        <v>146</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0180363655090332</v>
+      </c>
+      <c r="G42" t="n">
+        <v>485</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>matrizes/slot06/bcsstm19.mtx</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>39536719.78976859</v>
+      </c>
+      <c r="E43" t="n">
+        <v>130</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.02767181396484375</v>
+      </c>
+      <c r="G43" t="n">
+        <v>817</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>matrizes/slot06/bcsstm11.mtx</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>31.57768332328855</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0203402042388916</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1473</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>matrizes/slot06/bcsstm22.mtx</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.00973740970842194</v>
+      </c>
+      <c r="E45" t="n">
+        <v>29</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.001642942428588867</v>
+      </c>
+      <c r="G45" t="n">
+        <v>138</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>matrizes/slot06/bcsstm12.mtx</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>13.40996996333015</v>
+      </c>
+      <c r="E46" t="n">
+        <v>122</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1408455371856689</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1473</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>matrizes/slot06/bcsstm07.mtx</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2509.898102518885</v>
+      </c>
+      <c r="E47" t="n">
+        <v>103</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.008116960525512695</v>
+      </c>
+      <c r="G47" t="n">
+        <v>420</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>matrizes/slot06/bcsstm13.mtx</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>177.2629905522275</v>
+      </c>
+      <c r="E48" t="n">
+        <v>43</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0922396183013916</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>matrizes/slot06/bcsstm08.mtx</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1444020.255745148</v>
+      </c>
+      <c r="E49" t="n">
+        <v>29</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01360774040222168</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1074</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>matrizes/slot06/bcsstm09.mtx</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.000259020384904</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.001966238021850586</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1083</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>matrizes/slot06/bcsstm10.mtx</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>28131.9510377264</v>
+      </c>
+      <c r="E51" t="n">
+        <v>141</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.05230355262756348</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1086</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>matrizes/slot09/can_187.mtx</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>8.397620475292884</v>
+      </c>
+      <c r="E52" t="n">
+        <v>58</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.002471685409545898</v>
+      </c>
+      <c r="G52" t="n">
+        <v>187</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>matrizes/slot09/can_229.mtx</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>8.696410230685041</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0006289482116699219</v>
+      </c>
+      <c r="G53" t="n">
+        <v>229</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>matrizes/slot09/can_161.mtx</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>8.821261565896524</v>
+      </c>
+      <c r="E54" t="n">
+        <v>21</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0009033679962158203</v>
+      </c>
+      <c r="G54" t="n">
+        <v>161</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>matrizes/slot09/can_292.mtx</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>12.16372151100421</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0006520748138427734</v>
+      </c>
+      <c r="G55" t="n">
+        <v>292</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>matrizes/slot09/can_1054.mtx</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>14.84373761133698</v>
+      </c>
+      <c r="E56" t="n">
+        <v>42</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.01803398132324219</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1054</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>matrizes/slot09/can_445.mtx</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>8.950130371605427</v>
+      </c>
+      <c r="E57" t="n">
+        <v>43</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.003094673156738281</v>
+      </c>
+      <c r="G57" t="n">
+        <v>445</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>matrizes/slot09/can_256.mtx</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>16.03687867071401</v>
+      </c>
+      <c r="E58" t="n">
+        <v>16</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0008563995361328125</v>
+      </c>
+      <c r="G58" t="n">
+        <v>256</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>matrizes/slot09/can_268.mtx</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>14.45866874440652</v>
+      </c>
+      <c r="E59" t="n">
+        <v>18</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.001012086868286133</v>
+      </c>
+      <c r="G59" t="n">
+        <v>268</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>matrizes/slot09/can_715.mtx</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>15.30932234687733</v>
+      </c>
+      <c r="E60" t="n">
+        <v>48</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.00726771354675293</v>
+      </c>
+      <c r="G60" t="n">
+        <v>715</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>matrizes/slot09/can_634.mtx</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>13.85636022094015</v>
+      </c>
+      <c r="E61" t="n">
+        <v>74</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.008528470993041992</v>
+      </c>
+      <c r="G61" t="n">
+        <v>634</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>matrizes/slot10/ck400.mtx</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>5.502385709075823</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0007917881011962891</v>
+      </c>
+      <c r="G62" t="n">
+        <v>400</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>matrizes/slot10/dwt_234.mtx</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>4.582832763035696</v>
+      </c>
+      <c r="E63" t="n">
+        <v>39</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.002368450164794922</v>
+      </c>
+      <c r="G63" t="n">
+        <v>234</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>matrizes/slot10/ck104.mtx</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>5.502385709511155</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0004558563232421875</v>
+      </c>
+      <c r="G64" t="n">
+        <v>104</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>matrizes/slot10/dwt_221.mtx</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>8.222266227162402</v>
+      </c>
+      <c r="E65" t="n">
+        <v>52</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.003049373626708984</v>
+      </c>
+      <c r="G65" t="n">
+        <v>221</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>matrizes/slot10/dw2048.mtx</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9782280548675101</v>
+      </c>
+      <c r="E66" t="n">
+        <v>100</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.2020490169525146</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2048</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>matrizes/slot10/dwt_162.mtx</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>8.131173666984399</v>
+      </c>
+      <c r="E67" t="n">
+        <v>60</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.002880096435546875</v>
+      </c>
+      <c r="G67" t="n">
+        <v>162</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>matrizes/slot10/dwt_198.mtx</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>8.235967774192392</v>
+      </c>
+      <c r="E68" t="n">
+        <v>82</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.004563093185424805</v>
+      </c>
+      <c r="G68" t="n">
+        <v>198</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>matrizes/slot10/curtis54.mtx</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>6.620026168940758</v>
+      </c>
+      <c r="E69" t="n">
+        <v>48</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.001688003540039062</v>
+      </c>
+      <c r="G69" t="n">
+        <v>54</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>matrizes/slot10/can_1072.mtx</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>14.88215804242096</v>
+      </c>
+      <c r="E70" t="n">
+        <v>45</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01869916915893555</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1072</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>matrizes/slot10/dwt_193.mtx</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>21.10392161420017</v>
+      </c>
+      <c r="E71" t="n">
+        <v>17</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0009007453918457031</v>
+      </c>
+      <c r="G71" t="n">
+        <v>193</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>matrizes/slot11/fidap005.mtx</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>4359440.548861713</v>
+      </c>
+      <c r="E72" t="n">
+        <v>45</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.001431465148925781</v>
+      </c>
+      <c r="G72" t="n">
+        <v>27</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>matrizes/slot11/gr_30_30.mtx</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>11.86393030934931</v>
+      </c>
+      <c r="E73" t="n">
+        <v>113</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.2920467853546143</v>
+      </c>
+      <c r="G73" t="n">
+        <v>900</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>matrizes/slot11/e05r0100.mtx</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>12.41717072759173</v>
+      </c>
+      <c r="E74" t="n">
+        <v>233</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.01529097557067871</v>
+      </c>
+      <c r="G74" t="n">
+        <v>236</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>matrizes/slot11/bcsstm23.mtx</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>8270300.23229669</v>
+      </c>
+      <c r="E75" t="n">
+        <v>16</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.07803726196289062</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3134</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>matrizes/slot11/dwt_1005.mtx</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>16.40635975914216</v>
+      </c>
+      <c r="E76" t="n">
+        <v>14</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.006021976470947266</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1005</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>matrizes/slot11/sherman4.mtx</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>66.48767021742641</v>
+      </c>
+      <c r="E77" t="n">
+        <v>100</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0432136058807373</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1104</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>matrizes/slot11/dwt_1242.mtx</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>9.38929622309684</v>
+      </c>
+      <c r="E78" t="n">
+        <v>105</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.05826950073242188</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1242</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>matrizes/slot11/dwt_1007.mtx</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>8.912431480213071</v>
+      </c>
+      <c r="E79" t="n">
+        <v>61</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.02137970924377441</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1007</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>symmetric</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>matrizes/slot11/dwt_245.mtx</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>8.523646707394455</v>
+      </c>
+      <c r="E80" t="n">
+        <v>48</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0024566650390625</v>
+      </c>
+      <c r="G80" t="n">
+        <v>245</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>

--- a/resultados/resultados_preliminares.xlsx
+++ b/resultados/resultados_preliminares.xlsx
@@ -496,7 +496,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>2.939078330993652</v>
+        <v>3.05504846572876</v>
       </c>
       <c r="G2" t="n">
         <v>15439</v>
@@ -533,7 +533,7 @@
         <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0825803279876709</v>
+        <v>0.1033351421356201</v>
       </c>
       <c r="G3" t="n">
         <v>1922</v>
@@ -570,7 +570,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001203775405883789</v>
+        <v>0.0005776882171630859</v>
       </c>
       <c r="G4" t="n">
         <v>66</v>
@@ -607,7 +607,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001990318298339844</v>
+        <v>0.001138925552368164</v>
       </c>
       <c r="G5" t="n">
         <v>153</v>
@@ -644,7 +644,7 @@
         <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05086898803710938</v>
+        <v>0.03010797500610352</v>
       </c>
       <c r="G6" t="n">
         <v>1224</v>

--- a/resultados/resultados_preliminares.xlsx
+++ b/resultados/resultados_preliminares.xlsx
@@ -496,7 +496,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>3.05504846572876</v>
+        <v>3.107703685760498</v>
       </c>
       <c r="G2" t="n">
         <v>15439</v>
@@ -533,7 +533,7 @@
         <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1033351421356201</v>
+        <v>0.08751630783081055</v>
       </c>
       <c r="G3" t="n">
         <v>1922</v>
@@ -570,7 +570,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005776882171630859</v>
+        <v>0.0005950927734375</v>
       </c>
       <c r="G4" t="n">
         <v>66</v>
@@ -607,7 +607,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001138925552368164</v>
+        <v>0.001211643218994141</v>
       </c>
       <c r="G5" t="n">
         <v>153</v>
@@ -644,7 +644,7 @@
         <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03010797500610352</v>
+        <v>0.06937766075134277</v>
       </c>
       <c r="G6" t="n">
         <v>1224</v>

--- a/resultados/resultados_preliminares.xlsx
+++ b/resultados/resultados_preliminares.xlsx
@@ -496,7 +496,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>2.765376329421997</v>
+        <v>2.774353504180908</v>
       </c>
       <c r="G2" t="n">
         <v>15439</v>
@@ -533,7 +533,7 @@
         <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07045531272888184</v>
+        <v>0.07007050514221191</v>
       </c>
       <c r="G3" t="n">
         <v>1922</v>
@@ -570,7 +570,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001328706741333008</v>
+        <v>0.001367568969726562</v>
       </c>
       <c r="G4" t="n">
         <v>66</v>
@@ -607,7 +607,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001214742660522461</v>
+        <v>0.001143693923950195</v>
       </c>
       <c r="G5" t="n">
         <v>153</v>
@@ -644,7 +644,7 @@
         <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0597536563873291</v>
+        <v>0.03132462501525879</v>
       </c>
       <c r="G6" t="n">
         <v>1224</v>

--- a/resultados/resultados_preliminares.xlsx
+++ b/resultados/resultados_preliminares.xlsx
@@ -496,7 +496,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>2.774353504180908</v>
+        <v>2.99385666847229</v>
       </c>
       <c r="G2" t="n">
         <v>15439</v>
@@ -533,7 +533,7 @@
         <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07007050514221191</v>
+        <v>0.1137266159057617</v>
       </c>
       <c r="G3" t="n">
         <v>1922</v>
@@ -570,7 +570,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001367568969726562</v>
+        <v>0.001610279083251953</v>
       </c>
       <c r="G4" t="n">
         <v>66</v>
@@ -607,7 +607,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001143693923950195</v>
+        <v>0.001743316650390625</v>
       </c>
       <c r="G5" t="n">
         <v>153</v>
@@ -644,7 +644,7 @@
         <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03132462501525879</v>
+        <v>0.06757450103759766</v>
       </c>
       <c r="G6" t="n">
         <v>1224</v>
